--- a/Data/EC/NIT-9003601379.xlsx
+++ b/Data/EC/NIT-9003601379.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6848FB5A-A229-40D0-B187-4C1E4E73A6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6D164C-8F66-4686-A093-135E51F89CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0BD95858-83E3-464E-A682-5253DDAAB2F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D50704BD-48D6-416A-8133-29DFB4DC8554}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,193 +71,193 @@
     <t>HERMES VIDAL SARMIENTO YEPEZ</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>91271752</t>
+  </si>
+  <si>
+    <t>PABLO JOSE OSORIO MOROS</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1065619893</t>
+  </si>
+  <si>
+    <t>ALVARO ORTIZ QUINTERO</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1065619893</t>
-  </si>
-  <si>
-    <t>ALVARO ORTIZ QUINTERO</t>
-  </si>
-  <si>
-    <t>91271752</t>
-  </si>
-  <si>
-    <t>PABLO JOSE OSORIO MOROS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -356,7 +356,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -369,9 +371,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -571,23 +571,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,10 +615,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,7 +671,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492D88D2-94E1-1B07-9082-1F5523ED0D72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE774289-68DD-9CFD-74D3-9B3314ED52E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616350C6-05F7-4CAB-B399-51203C250A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C566528-D1F3-4AE6-975E-F1C5C0E4540C}">
   <dimension ref="B2:J137"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1200,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>19712</v>
+        <v>24640</v>
       </c>
       <c r="G16" s="18">
         <v>616000</v>
@@ -1559,19 +1559,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>21640</v>
       </c>
       <c r="G32" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1588,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>24640</v>
@@ -1605,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1651,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G36" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1680,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="18">
         <v>24640</v>
@@ -1697,19 +1697,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1726,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>24640</v>
@@ -1743,19 +1743,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1772,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F41" s="18">
         <v>24640</v>
@@ -1789,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G42" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1818,7 +1818,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F43" s="18">
         <v>24640</v>
@@ -1835,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F44" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1864,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F45" s="18">
         <v>24640</v>
@@ -1881,19 +1881,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F46" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1910,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F47" s="18">
         <v>24640</v>
@@ -1927,19 +1927,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F48" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1956,7 +1956,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F49" s="18">
         <v>24640</v>
@@ -1973,19 +1973,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F50" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2002,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F51" s="18">
         <v>24640</v>
@@ -2019,19 +2019,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F52" s="18">
-        <v>24640</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2048,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F53" s="18">
         <v>24640</v>
@@ -2065,19 +2065,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F54" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2094,7 +2094,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F55" s="18">
         <v>24640</v>
@@ -2111,19 +2111,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F56" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2140,7 +2140,7 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F57" s="18">
         <v>24640</v>
@@ -2157,19 +2157,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F58" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2186,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F59" s="18">
         <v>24640</v>
@@ -2203,19 +2203,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F60" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2232,7 +2232,7 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F61" s="18">
         <v>24640</v>
@@ -2249,19 +2249,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F62" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F63" s="18">
         <v>24640</v>
@@ -2295,19 +2295,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F64" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2324,7 +2324,7 @@
         <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F65" s="18">
         <v>24640</v>
@@ -2341,19 +2341,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F66" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2370,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F67" s="18">
         <v>24640</v>
@@ -2387,19 +2387,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F68" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2416,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F69" s="18">
         <v>24640</v>
@@ -2433,19 +2433,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F70" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2462,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F71" s="18">
         <v>24640</v>
@@ -2479,19 +2479,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F72" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2508,7 +2508,7 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F73" s="18">
         <v>24640</v>
@@ -2525,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F74" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>616000</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2548,19 +2548,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F75" s="18">
-        <v>28090</v>
+        <v>24640</v>
       </c>
       <c r="G75" s="18">
-        <v>877803</v>
+        <v>616000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2571,19 +2571,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F76" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2594,19 +2594,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F77" s="18">
-        <v>35112</v>
+        <v>24640</v>
       </c>
       <c r="G77" s="18">
-        <v>877803</v>
+        <v>616000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2617,19 +2617,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F78" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2640,19 +2640,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F79" s="18">
-        <v>35112</v>
+        <v>24640</v>
       </c>
       <c r="G79" s="18">
-        <v>877803</v>
+        <v>616000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2663,19 +2663,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F80" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2686,19 +2686,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F81" s="18">
-        <v>35112</v>
+        <v>24640</v>
       </c>
       <c r="G81" s="18">
-        <v>877803</v>
+        <v>616000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2709,19 +2709,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F82" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2732,19 +2732,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F83" s="18">
-        <v>35112</v>
+        <v>24640</v>
       </c>
       <c r="G83" s="18">
-        <v>877803</v>
+        <v>616000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2755,19 +2755,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F84" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2778,19 +2778,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F85" s="18">
-        <v>35112</v>
+        <v>24640</v>
       </c>
       <c r="G85" s="18">
-        <v>877803</v>
+        <v>616000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2801,19 +2801,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F86" s="18">
-        <v>35112</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2824,19 +2824,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F87" s="18">
-        <v>35112</v>
+        <v>24640</v>
       </c>
       <c r="G87" s="18">
-        <v>877803</v>
+        <v>616000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2847,16 +2847,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F88" s="18">
-        <v>24999</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2870,19 +2870,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2893,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2916,19 +2916,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2939,13 +2939,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -2962,19 +2962,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2985,19 +2985,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3008,13 +3008,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3031,19 +3031,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3054,19 +3054,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3077,13 +3077,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F98" s="18">
         <v>31249</v>
@@ -3100,19 +3100,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3123,19 +3123,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3146,13 +3146,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F101" s="18">
         <v>31249</v>
@@ -3169,19 +3169,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3192,19 +3192,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3215,13 +3215,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F104" s="18">
         <v>31249</v>
@@ -3238,19 +3238,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3261,19 +3261,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3284,13 +3284,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F107" s="18">
         <v>31249</v>
@@ -3307,19 +3307,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3330,19 +3330,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3353,13 +3353,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F110" s="18">
         <v>31249</v>
@@ -3376,19 +3376,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3399,19 +3399,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3422,13 +3422,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3445,19 +3445,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3468,19 +3468,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3491,13 +3491,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F116" s="18">
         <v>31249</v>
@@ -3514,19 +3514,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G117" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3537,19 +3537,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>35112</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3560,13 +3560,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F119" s="18">
         <v>31249</v>
@@ -3583,19 +3583,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3606,19 +3606,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F121" s="18">
-        <v>29509</v>
+        <v>35112</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3629,16 +3629,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F122" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3652,19 +3652,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F123" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3675,19 +3675,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F124" s="18">
-        <v>29509</v>
+        <v>35112</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3698,16 +3698,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="F125" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3721,19 +3721,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D126" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F126" s="18">
-        <v>29509</v>
+        <v>24640</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3744,19 +3744,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D127" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F127" s="18">
-        <v>29509</v>
+        <v>35112</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3767,16 +3767,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D128" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F128" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
         <v>781242</v>
@@ -3790,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D129" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E129" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E129" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F129" s="18">
-        <v>29509</v>
+        <v>19712</v>
       </c>
       <c r="G129" s="18">
-        <v>781242</v>
+        <v>616000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3813,19 +3813,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D130" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E130" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F130" s="18">
-        <v>29509</v>
+        <v>28090</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3836,16 +3836,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D131" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E131" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="F131" s="24">
-        <v>21640</v>
+        <v>24999</v>
       </c>
       <c r="G131" s="24">
         <v>781242</v>
